--- a/vr_data_analysis_pro/promulgator_analysis/analysis_pandas/live_play_statistics.xlsx
+++ b/vr_data_analysis_pro/promulgator_analysis/analysis_pandas/live_play_statistics.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,105 +14,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>playCount</t>
+  </si>
+  <si>
+    <t>userCount</t>
+  </si>
+  <si>
+    <t>videoSid</t>
+  </si>
   <si>
     <t>videoName</t>
   </si>
   <si>
-    <t>videoSid</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>play_count</t>
-  </si>
-  <si>
-    <t>videoTags</t>
-  </si>
-  <si>
-    <t>user_count</t>
+    <t>a2ea14a8c50c410fae304f6d02c3710c</t>
+  </si>
+  <si>
+    <t>太湖迷笛音乐节</t>
+  </si>
+  <si>
+    <t>2017太湖迷笛音乐节</t>
+  </si>
+  <si>
+    <t>火热直播中</t>
+  </si>
+  <si>
+    <t>731897b28a774a47a805b7fab866dea3</t>
   </si>
   <si>
     <t>锤子科技2017春季新品发布会</t>
   </si>
   <si>
-    <t>731897b28a774a47a805b7fab866dea3</t>
-  </si>
-  <si>
-    <t>2017-05-09</t>
-  </si>
-  <si>
-    <t>太湖迷笛音乐节</t>
-  </si>
-  <si>
-    <t>a2ea14a8c50c410fae304f6d02c3710c</t>
-  </si>
-  <si>
-    <t>2017-05-01</t>
+    <t>67c4bbc297854d79b4d1b0818d795336</t>
+  </si>
+  <si>
+    <t>香蕉计划B.I.G嘉年华</t>
+  </si>
+  <si>
+    <t>香蕉音乐节 4月22-23日带你嗨翻天</t>
+  </si>
+  <si>
+    <t>香蕉计划BIG嘉年华【Live Music】4月22-23日音乐嗨翻天</t>
+  </si>
+  <si>
+    <t>香蕉计划BIG嘉年华【Live Music】音乐嗨翻天</t>
+  </si>
+  <si>
+    <t>62a20fce53c44d6682f959b5df7ae31a</t>
   </si>
   <si>
     <t>中超首场VR直播 重庆力帆 VS 河南建业</t>
   </si>
   <si>
-    <t>62a20fce53c44d6682f959b5df7ae31a</t>
-  </si>
-  <si>
-    <t>2017-05-06</t>
+    <t>b44e67e4bf4c4c8880fe7991e823d1f0</t>
+  </si>
+  <si>
+    <t>SNH48 S队女神节特别公演</t>
+  </si>
+  <si>
+    <t>7c87d58c57c2427194155978db3625ae</t>
+  </si>
+  <si>
+    <t>佛光花海音乐节 - 花海舞台</t>
+  </si>
+  <si>
+    <t>be2a830b5b6740bab419d585c313fc1c</t>
+  </si>
+  <si>
+    <t>SNH48 H队《18个闪耀瞬间》公演</t>
+  </si>
+  <si>
+    <t>8ebeb7208eef4060b1cb0d2567871937</t>
+  </si>
+  <si>
+    <t>SNH48 S队《心的旅程》公演</t>
+  </si>
+  <si>
+    <t>69e4acfa9fa34050817d4f48c0c6f986</t>
   </si>
   <si>
     <t>江苏苏宁 VS 山东鲁能</t>
   </si>
   <si>
-    <t>69e4acfa9fa34050817d4f48c0c6f986</t>
-  </si>
-  <si>
-    <t>2017-05-14</t>
-  </si>
-  <si>
-    <t>香蕉计划B.I.G嘉年华</t>
-  </si>
-  <si>
-    <t>67c4bbc297854d79b4d1b0818d795336</t>
-  </si>
-  <si>
-    <t>佛光花海音乐节 - 花海舞台</t>
-  </si>
-  <si>
-    <t>7c87d58c57c2427194155978db3625ae</t>
+    <t>中超第9轮 江苏苏宁 VS 山东鲁能</t>
+  </si>
+  <si>
+    <t>d18a97642ff44140b9d9dec0ff33de1c</t>
+  </si>
+  <si>
+    <t>SNH48 N队《专属派对》公演</t>
+  </si>
+  <si>
+    <t>65212028688c4483bcf12e75fd935537</t>
+  </si>
+  <si>
+    <t>SIUF国际超模总决赛VR直播</t>
+  </si>
+  <si>
+    <t>c5cb0177c37a4333bead55499ceaa609</t>
+  </si>
+  <si>
+    <t>221204600618483292715ecf1d57574b</t>
+  </si>
+  <si>
+    <t>SNH48白色情人节特别公演</t>
+  </si>
+  <si>
+    <t>abc88e1a830a458ba5c2111768f05ec4</t>
+  </si>
+  <si>
+    <t>SNH48 XII队《代号XII》公演</t>
+  </si>
+  <si>
+    <t>72c3eba65a8140d9ae31c007fb1341e0</t>
   </si>
   <si>
     <t>佛光花海音乐节 - 咪咕舞台</t>
   </si>
   <si>
-    <t>72c3eba65a8140d9ae31c007fb1341e0</t>
-  </si>
-  <si>
-    <t>SIUF国际超模总决赛VR直播</t>
-  </si>
-  <si>
-    <t>65212028688c4483bcf12e75fd935537</t>
-  </si>
-  <si>
-    <t>SNH48 H队《18个闪耀瞬间》公演</t>
-  </si>
-  <si>
-    <t>c5cb0177c37a4333bead55499ceaa609</t>
-  </si>
-  <si>
-    <t>SNH48 XII队《代号XII》公演</t>
-  </si>
-  <si>
-    <t>abc88e1a830a458ba5c2111768f05ec4</t>
-  </si>
-  <si>
-    <t>2017-05-12</t>
-  </si>
-  <si>
-    <t>SNH48 N队《专属派对》公演</t>
+    <t>005adc77f25642e1a8c0c205ea93b0a2</t>
+  </si>
+  <si>
+    <t>91933921ce3b4ba78c46f061d68ae408</t>
   </si>
   <si>
     <t>d319b9934a6b43409f42aec46ac53816</t>
+  </si>
+  <si>
+    <t>d7304bf2ba6b43e1b536984b8d95e39c</t>
+  </si>
+  <si>
+    <t>3b144bf9fe7b4cf9833746dfda2d454c</t>
+  </si>
+  <si>
+    <t>47cfdd5a4ec84becb7084044167e74f6</t>
+  </si>
+  <si>
+    <t>748f4983d3ed43be92153f092714f46a</t>
+  </si>
+  <si>
+    <t>73e145ab54444139a1eeb8b028f99328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SNH48 X队《梦想的旗帜》公演</t>
+  </si>
+  <si>
+    <t>8a53bba0e22d4cbe8d6544dd7b921b78</t>
+  </si>
+  <si>
+    <t>SNH48 X队《梦想的旗帜》公演</t>
+  </si>
+  <si>
+    <t>9d50d9cd69b849a69b8eb7b18402e809</t>
+  </si>
+  <si>
+    <t>3b70c76e121a4ab2bb2f1b5a2b12dee2</t>
+  </si>
+  <si>
+    <t>d533892052e841a3b5c264c164e97454</t>
+  </si>
+  <si>
+    <t>eb96385a0899424eb61bcf4aa9e1bcd6</t>
+  </si>
+  <si>
+    <t>50dccfdf86834fc1ba525135d6b271f5</t>
+  </si>
+  <si>
+    <t>243970f8b110427ba63098b5b7c3b52c</t>
+  </si>
+  <si>
+    <t>3acf2189ced54595bb7ca761ade73d9d</t>
+  </si>
+  <si>
+    <t>a1c467dc64934d54bed9593436fb00e0</t>
+  </si>
+  <si>
+    <t>cf9f980bcaf9473e881ba970139ccc45</t>
+  </si>
+  <si>
+    <t>3088d150a6714580a50d04332cd469b2</t>
+  </si>
+  <si>
+    <t>ac47aaac494744afa343667112cae49f</t>
+  </si>
+  <si>
+    <t>2017魅力东方内衣总决赛VR</t>
+  </si>
+  <si>
+    <t>7587366337304125ab393a17f7747690</t>
+  </si>
+  <si>
+    <t>2017安莉芳设计决赛VR</t>
+  </si>
+  <si>
+    <t>51fc66b310324ed6917adfd756950727</t>
+  </si>
+  <si>
+    <t>京东世界正点大会</t>
+  </si>
+  <si>
+    <t>b40cd076c56c44feb1b4467402827821</t>
+  </si>
+  <si>
+    <t>2017金肚兜奖内衣盛典VR</t>
+  </si>
+  <si>
+    <t>f24d9df37a3540689aca74bf91f09e86</t>
+  </si>
+  <si>
+    <t>35061625f22148e9976ed82699423874</t>
+  </si>
+  <si>
+    <t>三种清晰度切换-三种清晰度切换-三种清晰度切换</t>
+  </si>
+  <si>
+    <t>47f8c74c3da04036942beb364d015a15</t>
+  </si>
+  <si>
+    <t>2K+4k免费直播测试</t>
+  </si>
+  <si>
+    <t>8fb2ecf6ce4b450c8785059d6cdbec69</t>
+  </si>
+  <si>
+    <t>免费直播</t>
+  </si>
+  <si>
+    <t>7bdb9ee77fe444bdba6588bc981f188e</t>
+  </si>
+  <si>
+    <t>咪咕测试</t>
   </si>
 </sst>
 </file>
@@ -120,13 +255,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,12 +283,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -448,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,212 +605,1000 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>656</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2441</v>
+      </c>
+      <c r="C3" t="n">
+        <v>972</v>
+      </c>
+      <c r="D3" t="n">
+        <v>656</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>972</v>
+      </c>
+      <c r="D4" t="n">
+        <v>656</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3607</v>
+      </c>
+      <c r="C5" t="n">
         <v>888</v>
       </c>
-      <c r="F2" t="n">
+      <c r="D5" t="n">
         <v>617</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C6" t="n">
+        <v>673</v>
+      </c>
+      <c r="D6" t="n">
+        <v>475</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
-        <v>508</v>
-      </c>
-      <c r="F3" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1445</v>
+      </c>
+      <c r="C7" t="n">
+        <v>673</v>
+      </c>
+      <c r="D7" t="n">
+        <v>475</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1578</v>
+      </c>
+      <c r="C8" t="n">
+        <v>673</v>
+      </c>
+      <c r="D8" t="n">
+        <v>475</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C9" t="n">
+        <v>673</v>
+      </c>
+      <c r="D9" t="n">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3294</v>
+      </c>
+      <c r="C10" t="n">
         <v>301</v>
       </c>
-      <c r="F4" t="n">
+      <c r="D10" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>151</v>
+      </c>
+      <c r="D11" t="n">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C12" t="n">
+        <v>123</v>
+      </c>
+      <c r="D12" t="n">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1088</v>
+      </c>
+      <c r="C14" t="n">
+        <v>104</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4490</v>
+      </c>
+      <c r="C15" t="n">
+        <v>102</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4493</v>
+      </c>
+      <c r="C16" t="n">
+        <v>102</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="n">
+        <v>471</v>
+      </c>
+      <c r="C17" t="n">
+        <v>98</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B18" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91</v>
+      </c>
+      <c r="D18" t="n">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="n">
+      <c r="B19" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C19" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="D19" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B20" t="n">
+        <v>405</v>
+      </c>
+      <c r="C20" t="n">
+        <v>79</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B21" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C21" t="n">
+        <v>78</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2153</v>
+      </c>
+      <c r="C22" t="n">
+        <v>72</v>
+      </c>
+      <c r="D22" t="n">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>299</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65</v>
+      </c>
+      <c r="D24" t="n">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>589</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>355</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44</v>
+      </c>
+      <c r="D27" t="n">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>689</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>953</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>842</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F6" t="n">
+      <c r="B31" t="n">
+        <v>737</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>631</v>
+      </c>
+      <c r="C32" t="n">
+        <v>38</v>
+      </c>
+      <c r="D32" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C33" t="n">
+        <v>34</v>
+      </c>
+      <c r="D33" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>819</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>954</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>880</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>736</v>
+      </c>
+      <c r="C37" t="n">
+        <v>28</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>686</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>910</v>
+      </c>
+      <c r="C39" t="n">
+        <v>24</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>670</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>914</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C47" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C48" t="n">
         <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
